--- a/Tugas/05 November/FORM Analisis Resiko.xlsx
+++ b/Tugas/05 November/FORM Analisis Resiko.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DWI KURNIAWAN\Magang-Undip\Tugas\05 November\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP Lab El\Magang\Tugas\05 November\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Penilaian Resiko" sheetId="2" r:id="rId1"/>
     <sheet name="Form Analisis Tingkat Resiko" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>RESIKO</t>
   </si>
@@ -238,12 +238,15 @@
   </si>
   <si>
     <t>LABORATORIUM EKNIK ELEKTRO</t>
+  </si>
+  <si>
+    <t>Pembuatan IK dan JSA (Job Savety Analisis)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,7 +802,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -897,12 +900,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,77 +963,146 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1076,75 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1551,124 +1548,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="85" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="85"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="86" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="33">
         <v>44489</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="86" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="33">
         <v>44495</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="86" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="86"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="34">
         <v>0</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="36"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="86" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="86"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="37"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="87" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1678,18 +1675,18 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="82" t="s">
+    <row r="8" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="82"/>
-    </row>
-    <row r="10" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
+      <c r="C9" s="89"/>
+    </row>
+    <row r="10" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="81"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="29">
         <v>5</v>
       </c>
@@ -1714,11 +1711,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
+    <row r="11" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="81"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="29">
         <v>4</v>
       </c>
@@ -1743,11 +1740,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+    <row r="12" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="81"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="29">
         <v>3</v>
       </c>
@@ -1772,11 +1769,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="s">
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="30">
         <v>2</v>
       </c>
@@ -1804,11 +1801,11 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="81" t="s">
+    <row r="14" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="30">
         <v>1</v>
       </c>
@@ -1836,7 +1833,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="38"/>
       <c r="E15" s="31">
         <v>1</v>
@@ -1857,7 +1854,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="27" t="s">
         <v>20</v>
       </c>
@@ -1880,155 +1877,128 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="70" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="82" t="s">
+      <c r="C20" s="76"/>
+      <c r="D20" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="70" t="s">
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="82" t="s">
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82" t="s">
+      <c r="E21" s="89"/>
+      <c r="F21" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="71" t="s">
+      <c r="G21" s="89"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="83">
+      <c r="C22" s="66"/>
+      <c r="D22" s="71">
         <v>1</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83">
+      <c r="E22" s="71"/>
+      <c r="F22" s="71">
         <v>5</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84" t="s">
+      <c r="G22" s="71"/>
+      <c r="H22" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="84"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="71" t="s">
+      <c r="I22" s="72"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="83">
+      <c r="C23" s="66"/>
+      <c r="D23" s="71">
         <v>6</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83">
+      <c r="E23" s="71"/>
+      <c r="F23" s="71">
         <v>10</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="88" t="s">
+      <c r="G23" s="71"/>
+      <c r="H23" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="88"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="71" t="s">
+      <c r="I23" s="67"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="83">
+      <c r="C24" s="66"/>
+      <c r="D24" s="71">
         <v>11</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83">
+      <c r="E24" s="71"/>
+      <c r="F24" s="71">
         <v>15</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="89" t="s">
+      <c r="G24" s="71"/>
+      <c r="H24" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="89"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="71" t="s">
+      <c r="I24" s="68"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="83">
+      <c r="C25" s="66"/>
+      <c r="D25" s="71">
         <v>16</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83">
+      <c r="E25" s="71"/>
+      <c r="F25" s="71">
         <v>20</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="90" t="s">
+      <c r="G25" s="71"/>
+      <c r="H25" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="90"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="71" t="s">
+      <c r="I25" s="69"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="83">
+      <c r="C26" s="66"/>
+      <c r="D26" s="71">
         <v>21</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83">
+      <c r="E26" s="71"/>
+      <c r="F26" s="71">
         <v>25</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="91" t="s">
+      <c r="G26" s="71"/>
+      <c r="H26" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="91"/>
+      <c r="I26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -2045,6 +2015,33 @@
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2056,304 +2053,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="35"/>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="98" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="36"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="86" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="33" t="s">
         <v>68</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="36"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="86" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="86"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="33">
         <v>44495</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="36"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="86" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="86"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="34"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="36"/>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="86" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="86"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="87" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="87"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="7"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
       <c r="C9" s="41"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119" t="s">
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F10" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126" t="s">
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="115" t="s">
+      <c r="K10" s="90" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="120"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="60" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="I11" s="96"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="113">
         <v>4</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="113">
         <v>4</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="115">
         <f>F12*G12</f>
         <v>16</v>
       </c>
-      <c r="I12" s="96" t="str">
+      <c r="I12" s="117" t="str">
         <f>IF(H12&lt;6,"SR",IF(AND(H12&gt;5,H12&lt;11),"R",IF(AND(H12&gt;10,H12&lt;16),"S",IF(AND(H12&gt;15,H12&lt;21),"T","ST"))))</f>
         <v>T</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="105"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="49" t="s">
+      <c r="K12" s="103" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="106"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="106"/>
-    </row>
-    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
+      <c r="K13" s="104"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="113">
         <v>4</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="113">
         <v>4</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="115">
         <f t="shared" ref="H14:H20" si="0">F14*G14</f>
         <v>16</v>
       </c>
-      <c r="I14" s="96" t="str">
+      <c r="I14" s="117" t="str">
         <f t="shared" ref="I14:I20" si="1">IF(H14&lt;6,"SR",IF(AND(H14&gt;5,H14&lt;11),"R",IF(AND(H14&gt;10,H14&lt;16),"S",IF(AND(H14&gt;15,H14&lt;21),"T","ST"))))</f>
         <v>T</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="46"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="49" t="s">
+      <c r="K14" s="103" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="106"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K15" s="104"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>45</v>
       </c>
@@ -2363,32 +2364,34 @@
       <c r="C16" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="45">
         <v>3</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="45">
         <v>3</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I16" s="66" t="str">
+      <c r="I16" s="64" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="46"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K16" s="103" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>47</v>
       </c>
@@ -2398,32 +2401,32 @@
       <c r="C17" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="45">
         <v>2</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="45">
         <v>3</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I17" s="66" t="str">
+      <c r="I17" s="64" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="104"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>49</v>
       </c>
@@ -2433,32 +2436,34 @@
       <c r="C18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="45">
         <v>4</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="45">
         <v>4</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="46">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I18" s="67" t="str">
+      <c r="I18" s="65" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="46"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="103" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>51</v>
       </c>
@@ -2471,29 +2476,29 @@
       <c r="D19" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="45">
         <v>2</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="45">
         <v>3</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I19" s="66" t="str">
+      <c r="I19" s="64" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="50"/>
-    </row>
-    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="K19" s="104"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>54</v>
       </c>
@@ -2506,53 +2511,59 @@
       <c r="D20" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="45">
         <v>2</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="45">
         <v>3</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I20" s="66" t="str">
+      <c r="I20" s="64" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="50"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
+  <mergeCells count="44">
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:G5"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -2569,20 +2580,17 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C6:G7"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="H12:I12 H14:I14 H16:I21">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">

--- a/Tugas/05 November/FORM Analisis Resiko.xlsx
+++ b/Tugas/05 November/FORM Analisis Resiko.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PLP Lab El\Magang\Tugas\05 November\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DWI KURNIAWAN\Magang-Undip\Tugas\05 November\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Penilaian Resiko" sheetId="2" r:id="rId1"/>
     <sheet name="Form Analisis Tingkat Resiko" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>RESIKO</t>
   </si>
@@ -241,12 +242,81 @@
   </si>
   <si>
     <t>Pembuatan IK dan JSA (Job Savety Analisis)</t>
+  </si>
+  <si>
+    <t>PENYEBAB</t>
+  </si>
+  <si>
+    <t>Kerusakan Alat</t>
+  </si>
+  <si>
+    <t>Kesalahan pemakaian</t>
+  </si>
+  <si>
+    <t>Kurangnya pemeliharaan</t>
+  </si>
+  <si>
+    <t>Kurangnya kompetensi pengguna</t>
+  </si>
+  <si>
+    <t>Kerugian aset</t>
+  </si>
+  <si>
+    <t>Praktikum</t>
+  </si>
+  <si>
+    <t>Data pengukuran tidak valid</t>
+  </si>
+  <si>
+    <t>Pembuatan SOP dan IK</t>
+  </si>
+  <si>
+    <t>Penjadwalan perawatan berkala</t>
+  </si>
+  <si>
+    <t>Pelatihan Kompetensi</t>
+  </si>
+  <si>
+    <t>Supervisi penggunaan</t>
+  </si>
+  <si>
+    <t>Kehilangan Alat</t>
+  </si>
+  <si>
+    <t>Kurangnya pengawasan praktikum</t>
+  </si>
+  <si>
+    <t>Keterbatasan personel laboratorium</t>
+  </si>
+  <si>
+    <t>Memperketat pengawasan</t>
+  </si>
+  <si>
+    <t>Pembuatan SOP</t>
+  </si>
+  <si>
+    <t>Pembuatan LOKER</t>
+  </si>
+  <si>
+    <t>Kecelakaan Kerja</t>
+  </si>
+  <si>
+    <t>Kurangnya pengawasan K3</t>
+  </si>
+  <si>
+    <t>Cidera</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>Pembentukan tim K3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -789,6 +859,123 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -802,7 +989,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1035,10 +1222,82 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1062,86 +1321,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1150,7 +1421,28 @@
     <cellStyle name="Normal_Identifikasi Aspek dan Dampak Lingkungan" xfId="2"/>
     <cellStyle name="Normal_Identifikasi Aspek dan Dampak Lingkungan 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1271,6 +1563,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="350876" y="85726"/>
+          <a:ext cx="725450" cy="764030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>169901</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895351</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="569951" y="285751"/>
           <a:ext cx="725450" cy="764030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1552,16 +1893,16 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="35"/>
       <c r="C1" s="79" t="s">
@@ -1580,7 +1921,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="36"/>
       <c r="C2" s="84"/>
@@ -1597,7 +1938,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="36"/>
       <c r="C3" s="77" t="s">
@@ -1616,7 +1957,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="36"/>
       <c r="C4" s="81"/>
@@ -1633,7 +1974,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="36"/>
       <c r="C5" s="84"/>
@@ -1649,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="37"/>
       <c r="C6" s="86" t="s">
@@ -1665,7 +2006,7 @@
       <c r="I6" s="75"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1675,14 +2016,14 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="89" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="88" t="s">
         <v>19</v>
       </c>
@@ -1711,7 +2052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="88" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +2081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="88" t="s">
         <v>17</v>
       </c>
@@ -1769,7 +2110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="88" t="s">
         <v>16</v>
       </c>
@@ -1801,7 +2142,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="88" t="s">
         <v>15</v>
       </c>
@@ -1833,7 +2174,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="38"/>
       <c r="E15" s="31">
         <v>1</v>
@@ -1854,7 +2195,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="27" t="s">
         <v>20</v>
       </c>
@@ -1877,7 +2218,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="76" t="s">
         <v>22</v>
       </c>
@@ -1893,7 +2234,7 @@
       </c>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
       <c r="D21" s="89" t="s">
@@ -1907,7 +2248,7 @@
       <c r="H21" s="76"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="66" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +2266,7 @@
       </c>
       <c r="I22" s="72"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="66" t="s">
         <v>16</v>
       </c>
@@ -1943,7 +2284,7 @@
       </c>
       <c r="I23" s="67"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="66" t="s">
         <v>17</v>
       </c>
@@ -1961,7 +2302,7 @@
       </c>
       <c r="I24" s="68"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="66" t="s">
         <v>18</v>
       </c>
@@ -1979,7 +2320,7 @@
       </c>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="66" t="s">
         <v>19</v>
       </c>
@@ -2053,27 +2394,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="35"/>
       <c r="C2" s="79" t="s">
@@ -2083,14 +2424,14 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
       <c r="G2" s="80"/>
-      <c r="H2" s="119" t="s">
+      <c r="H2" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="36"/>
       <c r="C3" s="84"/>
@@ -2107,7 +2448,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="36"/>
       <c r="C4" s="77" t="s">
@@ -2126,7 +2467,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="36"/>
       <c r="C5" s="81"/>
@@ -2141,16 +2482,16 @@
       <c r="J5" s="34"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="36"/>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="124"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="74" t="s">
         <v>11</v>
       </c>
@@ -2160,10 +2501,10 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="125"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="86"/>
       <c r="E7" s="86"/>
       <c r="F7" s="86"/>
@@ -2175,7 +2516,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="59"/>
@@ -2188,55 +2529,55 @@
       <c r="J8" s="60"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
       <c r="C9" s="41"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99" t="s">
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95" t="s">
+      <c r="G10" s="117"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="90" t="s">
+      <c r="J10" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="94" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="91"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="58" t="s">
         <v>2</v>
       </c>
@@ -2246,115 +2587,115 @@
       <c r="H11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="96"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="105" t="s">
+      <c r="I11" s="120"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="106">
         <v>4</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="106">
         <v>4</v>
       </c>
-      <c r="H12" s="115">
+      <c r="H12" s="112">
         <f>F12*G12</f>
         <v>16</v>
       </c>
-      <c r="I12" s="117" t="str">
+      <c r="I12" s="114" t="str">
         <f>IF(H12&lt;6,"SR",IF(AND(H12&gt;5,H12&lt;11),"R",IF(AND(H12&gt;10,H12&lt;16),"S",IF(AND(H12&gt;15,H12&lt;21),"T","ST"))))</f>
         <v>T</v>
       </c>
       <c r="J12" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="103" t="s">
+      <c r="K12" s="96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="118"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="115"/>
       <c r="J13" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="104"/>
-    </row>
-    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105" t="s">
+      <c r="K13" s="97"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="111" t="s">
+      <c r="E14" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="106">
         <v>4</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="106">
         <v>4</v>
       </c>
-      <c r="H14" s="115">
+      <c r="H14" s="112">
         <f t="shared" ref="H14:H20" si="0">F14*G14</f>
         <v>16</v>
       </c>
-      <c r="I14" s="117" t="str">
+      <c r="I14" s="114" t="str">
         <f t="shared" ref="I14:I20" si="1">IF(H14&lt;6,"SR",IF(AND(H14&gt;5,H14&lt;11),"R",IF(AND(H14&gt;10,H14&lt;16),"S",IF(AND(H14&gt;15,H14&lt;21),"T","ST"))))</f>
         <v>T</v>
       </c>
       <c r="J14" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="118"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="99"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="115"/>
       <c r="J15" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="104"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="97"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>45</v>
       </c>
@@ -2387,11 +2728,11 @@
       <c r="J16" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="103" t="s">
+      <c r="K16" s="96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>47</v>
       </c>
@@ -2424,9 +2765,9 @@
       <c r="J17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="104"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="97"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>49</v>
       </c>
@@ -2459,11 +2800,11 @@
       <c r="J18" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="103" t="s">
+      <c r="K18" s="96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>51</v>
       </c>
@@ -2496,9 +2837,9 @@
       <c r="J19" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="104"/>
-    </row>
-    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="K19" s="97"/>
+    </row>
+    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>54</v>
       </c>
@@ -2533,7 +2874,7 @@
       </c>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="50"/>
       <c r="C21" s="51"/>
@@ -2552,12 +2893,19 @@
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="C6:G7"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -2579,20 +2927,436 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H12:I12 H14:I14 H16:I21">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"L"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="132"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="129"/>
+      <c r="J3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="129"/>
+      <c r="J4" s="33">
+        <v>44495</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="129"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="129"/>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="131"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="135"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="141" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="144" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="146"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="152"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="153"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="53">
+        <v>4</v>
+      </c>
+      <c r="G12" s="53">
+        <v>4</v>
+      </c>
+      <c r="H12" s="54">
+        <f>F12*G12</f>
+        <v>16</v>
+      </c>
+      <c r="I12" s="133" t="str">
+        <f>IF(H12&lt;6,"SR",IF(AND(H12&gt;5,H12&lt;11),"R",IF(AND(H12&gt;10,H12&lt;16),"S",IF(AND(H12&gt;15,H12&lt;21),"T","ST"))))</f>
+        <v>T</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="134" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:I12 H14:I14 H16:I21">
+  <conditionalFormatting sqref="H12:I12">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"H"</formula>
     </cfRule>
